--- a/systems2atoms/systems/inputs/input_params_multi_catal_5yr_life.xlsx
+++ b/systems2atoms/systems/inputs/input_params_multi_catal_5yr_life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/hydrogen_delivery_costs/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doellnl-my.sharepoint.com/personal/yuan13_llnl_gov/Documents/Documents/_work/projects/System to Atoms (S2A)/GitHub/systems2atoms/systems2atoms/systems/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3B4C46-84F6-421C-BCFE-E1F04EF05AAA}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:40009_{386061FE-3CDD-48D5-AA75-D7117555D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BBC23A-1380-4408-B95D-C1806D1D1A0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{0C5CF20C-AC3A-40FD-8E5F-CC292BD4B264}">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{0C5CF20C-AC3A-40FD-8E5F-CC292BD4B264}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{A8426B32-5DCA-4F4F-ACD4-68CCBEE80960}">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{A8426B32-5DCA-4F4F-ACD4-68CCBEE80960}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>run #</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>electro</t>
+  </si>
+  <si>
+    <t>terminal compressed hydrogen storage amount (days)</t>
+  </si>
+  <si>
+    <t>terminal liquid hydrogen storage amount (days)</t>
   </si>
 </sst>
 </file>
@@ -1603,19 +1609,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1640,20 +1646,22 @@
     <col min="25" max="25" width="31" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="43" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1736,40 +1744,46 @@
         <v>37</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1852,40 +1866,46 @@
         <v>0.25</v>
       </c>
       <c r="AB2" s="1">
-        <v>300</v>
+        <v>0.25</v>
       </c>
       <c r="AC2" s="1">
         <v>1</v>
       </c>
       <c r="AD2" s="1">
+        <v>300</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AH2" s="1">
         <v>1</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AI2" s="1">
         <v>9.6467120334224301</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <v>3500</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2" s="1">
         <v>1</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <v>0</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <v>0</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AN2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1893,158 +1913,158 @@
         <f t="shared" ref="B3:B34" si="0">B2+1</f>
         <v>1</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>300</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>7.31028611028611E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>1</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>9.6467120334224337</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>3500</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>3.06770616770616E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>4.0481696005543908</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>1.36387486387486E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>1.7997801813681762</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>6.3794673794673696E-3</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.84183961896841764</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>3.12978912978913E-3</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.41300947739827742</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>1.5999405999406E-3</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0.21112944152064153</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>8.4999324999325001E-4</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.11216578926370925</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>4.6999666999666999E-4</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>6.2021136570096565E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>2.6999846999847002E-4</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>3.5629214099774105E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2052,152 +2072,152 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>300</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>100</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>7.6013986013985999E-2</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>1</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>10.030866405594402</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>3500</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>3.11388611388611E-2</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>4.1091090269730213</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>1.3496503496503401E-2</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>1.7810093986013857</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>6.1694881694881699E-3</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>0.8141305944361944</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>2.9598059598059598E-3</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>0.39057836230076226</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>1.48995148995149E-3</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>0.19661519057519058</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>7.7999387999388005E-4</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>0.1029286163990964</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>4.1999711999712001E-4</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>5.5423155952515957E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>2.3398673398673301E-4</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>3.087707660627648E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2205,152 +2225,152 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>300</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>1</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>18.952182952182898</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>1</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>2500.4621178112193</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>3000</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>5.7380457380457299</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>757.05083865280551</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>290.25768024000001</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>1</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>131.93530919999998</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>0.45</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>59.370889140000003</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>0.21</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>27.706414931999998</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>0.1</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>13.193530919999999</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>6.8606360783999989</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
         <v>0.03</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>3.9580592759999993</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2358,152 +2378,152 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>300</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <v>100</v>
       </c>
-      <c r="AD30">
+      <c r="AF30">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE30">
+      <c r="AG30">
         <v>18.952182952182898</v>
       </c>
-      <c r="AF30">
+      <c r="AH30">
         <v>1</v>
       </c>
-      <c r="AG30">
+      <c r="AI30">
         <v>2500.4621178112193</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>3000</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
         <v>5.7380457380457299</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>757.05083865280551</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>290.25768024000001</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE33">
+      <c r="AG33">
         <v>0.83</v>
       </c>
-      <c r="AG33">
+      <c r="AI33">
         <v>109.50630663599998</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
         <v>0.35</v>
       </c>
-      <c r="AG34">
+      <c r="AI34">
         <v>46.177358219999995</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ref="B35:B56" si="1">B34+1</f>
         <v>33</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>0.15</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>19.790296379999997</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="AG36">
+      <c r="AI36">
         <v>9.1035363348000011</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE37">
+      <c r="AG37">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AG37">
+      <c r="AI37">
         <v>4.3538652036000007</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <v>2.2429002563999996</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2511,152 +2531,152 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>300</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>1</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
         <v>1.5436095436095401</v>
       </c>
-      <c r="AF39">
+      <c r="AH39">
         <v>1</v>
       </c>
-      <c r="AG39">
+      <c r="AI39">
         <v>203.63528023284775</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>1400</v>
       </c>
-      <c r="AI39">
+      <c r="AK39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE40">
+      <c r="AG40">
         <v>1.0291060291060199</v>
       </c>
-      <c r="AG40">
+      <c r="AI40">
         <v>135.76120690228566</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE41">
+      <c r="AG41">
         <v>0.78</v>
       </c>
-      <c r="AG41">
+      <c r="AI41">
         <v>102.89876688</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE42">
+      <c r="AG42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AG42">
+      <c r="AI42">
         <v>76.514467679999981</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE43">
+      <c r="AG43">
         <v>0.41</v>
       </c>
-      <c r="AG43">
+      <c r="AI43">
         <v>54.087813359999998</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE44">
+      <c r="AG44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG44">
+      <c r="AI44">
         <v>38.257233839999991</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE45">
+      <c r="AG45">
         <v>0.22</v>
       </c>
-      <c r="AG45">
+      <c r="AI45">
         <v>29.022729119999997</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE46">
+      <c r="AG46">
         <v>0.17</v>
       </c>
-      <c r="AG46">
+      <c r="AI46">
         <v>22.426654320000001</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE47">
+      <c r="AG47">
         <v>0.12</v>
       </c>
-      <c r="AG47">
+      <c r="AI47">
         <v>15.830579519999997</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2664,153 +2684,153 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>300</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <v>100</v>
       </c>
-      <c r="AD48">
+      <c r="AF48">
         <v>0.99990000000000001</v>
       </c>
-      <c r="AE48">
+      <c r="AG48">
         <v>0.108391608391608</v>
       </c>
-      <c r="AF48">
+      <c r="AH48">
         <v>1</v>
       </c>
-      <c r="AG48">
+      <c r="AI48">
         <v>14.29918313286708</v>
       </c>
-      <c r="AH48">
+      <c r="AJ48">
         <v>1400</v>
       </c>
-      <c r="AI48">
+      <c r="AK48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>310.5263157894737</v>
       </c>
-      <c r="AE49">
+      <c r="AG49">
         <v>5.6195426195426099E-2</v>
       </c>
-      <c r="AG49">
+      <c r="AI49">
         <v>7.4133846920581981</v>
       </c>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>321.0526315789474</v>
       </c>
-      <c r="AE50">
+      <c r="AG50">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AG50">
+      <c r="AI50">
         <v>4.6172523600000002</v>
       </c>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>331.57894736842098</v>
       </c>
-      <c r="AE51">
+      <c r="AG51">
         <v>0.02</v>
       </c>
-      <c r="AG51">
+      <c r="AI51">
         <v>2.6384299199999997</v>
       </c>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="AB52">
+      <c r="AD52">
         <v>342.10526315789468</v>
       </c>
-      <c r="AE52">
+      <c r="AG52">
         <v>1.2E-2</v>
       </c>
-      <c r="AG52">
+      <c r="AI52">
         <v>1.5830579519999999</v>
       </c>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>352.63157894736838</v>
       </c>
-      <c r="AE53">
+      <c r="AG53">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AG53">
+      <c r="AI53">
         <v>0.92345047199999986</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="AB54">
+      <c r="AD54">
         <v>363.15789473684208</v>
       </c>
-      <c r="AE54">
+      <c r="AG54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AG54">
+      <c r="AI54">
         <v>0.65960747999999991</v>
       </c>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="AB55">
+      <c r="AD55">
         <v>373.68421052631578</v>
       </c>
-      <c r="AE55">
+      <c r="AG55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG55">
+      <c r="AI55">
         <v>0.39576448799999997</v>
       </c>
     </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>384.21052631578948</v>
       </c>
-      <c r="AE56">
+      <c r="AG56">
         <v>1.8E-3</v>
       </c>
-      <c r="AG56">
+      <c r="AI56">
         <v>0.23745869279999995</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:AL56">
+  <conditionalFormatting sqref="C3:AN56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C3&lt;&gt;C$2</formula>
     </cfRule>
